--- a/data/case1/20/P2_3.xlsx
+++ b/data/case1/20/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.34017361427623882</v>
+        <v>0.30544054395605258</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994813622095</v>
+        <v>-0.0099999999522282224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999994725413757</v>
+        <v>-0.0089999999514969176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999859366284</v>
+        <v>-0.011999999986109344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.012065952953001613</v>
+        <v>-0.0059999999526896275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994640342891</v>
+        <v>-0.0059999999515802926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999367181331</v>
+        <v>-0.019999999941093805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.028009264838667391</v>
+        <v>-0.019999999940728763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994442625493</v>
+        <v>0.037651242462737322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999436191672</v>
+        <v>-0.0059999999499922296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999445226166</v>
+        <v>-0.0044999999509656163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994331856321</v>
+        <v>-0.0059999999496214151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994245059085</v>
+        <v>-0.0059999999487985178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999381539617</v>
+        <v>-0.011999999944128703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994200268247</v>
+        <v>-0.0059999999483482114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994182484695</v>
+        <v>-0.0059999999481614719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999999415836399</v>
+        <v>-0.005999999947913004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999993951224155</v>
+        <v>-0.0089999999456455981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994874205846</v>
+        <v>-0.0089999999529206676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994808422912</v>
+        <v>-0.0089999999524756902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994796885474</v>
+        <v>-0.008999999952385096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.020984194011757218</v>
+        <v>-0.0089999999523433516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994679148543</v>
+        <v>-0.0089999999509675632</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999237592789</v>
+        <v>-0.059889369195603948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999233600427</v>
+        <v>-0.041999999925202758</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994635617782</v>
+        <v>-0.0059999999514168678</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994631274589</v>
+        <v>-0.0059999999513418167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994615544949</v>
+        <v>-0.034339889595665696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999420666541</v>
+        <v>-0.011999999946544548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999936720176</v>
+        <v>-0.019999999940716329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999403825015</v>
+        <v>-0.014999999944825149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999364861743</v>
+        <v>-0.016199229919258151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.061955533400047003</v>
+        <v>0.066839425766595184</v>
       </c>
     </row>
   </sheetData>
